--- a/Top30Instances_01-16-2026.xlsx
+++ b/Top30Instances_01-16-2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,41 +502,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>VSME</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F2" t="n">
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>7.189999999999998</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>2.574944577047973</v>
+        <v>11.56504899689207</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01575722939113344</v>
+        <v>-0.06124815176544729</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.86241686557196</v>
+        <v>17.3475734953381</v>
       </c>
     </row>
     <row r="3">
@@ -546,11 +546,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>VCIG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1399999999999997</v>
+        <v>0.1687000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>1.413798068704697</v>
+        <v>9.940306074250108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7669538765820577</v>
+        <v>-0.2851701681416981</v>
       </c>
       <c r="K3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.413798068704697</v>
+        <v>14.91045911137516</v>
       </c>
     </row>
     <row r="4">
@@ -590,41 +590,1229 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>POET</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.699184475841667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6975038198828942</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.5487767137625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>900</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KALA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1564</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.922617856428145</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8039204372075689</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.38392678464222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SGML</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.259244851512941</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1233660484510923</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13.14811212878235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RZLT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7200000000000004</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.886128391025654</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3310380039165811</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.886128391025654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>400</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SATS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.37000000000002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.289571208038733</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3606816198736392</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.868713624116198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>400</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BIYA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7913999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.38863656799126</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5298689792136621</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.582954851986891</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AFRM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.63999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.617871452087846</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8619523863573342</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.235742904175693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>300</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OSRH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.606237975354404</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1968489933433959</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.212475950708807</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AIRE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07800000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.553687702065812</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.2515883864807028</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.107375404131623</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>300</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ALAB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.70499999999998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.616826344836976</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5770439355592982</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.042065862092439</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MVIS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>XLF</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1525000000000002</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.906455470504114</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.343563528814154</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.719366411512343</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>800</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SATL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3600000000000003</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.804748060191681</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2621370214109094</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.707122090287521</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>600</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RVPH</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05409999999999998</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.579990261058775</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007061358460432506</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.369985391588163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>500</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ABBV</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.309999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.160087116566652</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6681231963170386</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.320174233133304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>800</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SLS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VB</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.051679033880806</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2190056684951119</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.051679033880806</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>300</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>XPEV</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.140000000000004</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.006591038138863</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.108951018523526</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.013182076277726</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>500</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TMC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.98188186679182</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.1148409725331256</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.96376373358364</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>900</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>XLF</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9799999999999995</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.272747012641562</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.2460658775382966</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.909120518962343</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>700</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EXK</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.934986494550753</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1058050803442123</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.402479741826129</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>400</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BTDR</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>XLF</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.620600428287696</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.2939498609204089</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.241200856575392</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CGC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F24" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1700000000000002</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.805114172327052</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.3041841263682936</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.207671258490578</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>900</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.269999999999998</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.700212092437835</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7752328970512293</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.050318138656753</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>900</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ARRY</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VTI</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.239999999999997</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.631757245908237</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4735693382623326</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.947635868862356</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>700</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PALI</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5400000000000003</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.877260153005182</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1689348727134193</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.877260153005182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>500</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UAA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>0.01</v>
       </c>
-      <c r="G4" t="n">
+      <c r="F28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.571867080991006</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9687387386087246</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.857800621486509</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.719999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4190860381145578</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.04787624005704039</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4190860381145578</v>
+      <c r="H29" t="n">
+        <v>0.4350000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.224196662104428</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2269925800258449</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.448393324208856</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>800</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>QXO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>IWM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.215114064200886</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6854372898755123</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.430228128401772</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>('2025-12-16', '2026-01-15')</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>400</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CIFR</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.253505879570837</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3300126250702196</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.380258819356255</v>
       </c>
     </row>
   </sheetData>
